--- a/May'21/03.05.2021/Bank Statement.xlsx
+++ b/May'21/03.05.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="173">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -916,27 +916,12 @@
     <t>Singneture</t>
   </si>
   <si>
-    <t>Koushik Ahmed Mim</t>
-  </si>
-  <si>
     <t>SSE</t>
   </si>
   <si>
     <t>Shop</t>
   </si>
   <si>
-    <t>Desh Mobile Centre</t>
-  </si>
-  <si>
-    <t>030075</t>
-  </si>
-  <si>
-    <t>20/03/2021</t>
-  </si>
-  <si>
-    <t>24/03/2021</t>
-  </si>
-  <si>
     <t>31.03.2021</t>
   </si>
   <si>
@@ -1006,9 +991,6 @@
     <t>28/27.04.2021</t>
   </si>
   <si>
-    <t>Date:04.05.2021</t>
-  </si>
-  <si>
     <t>Month :May''2021</t>
   </si>
   <si>
@@ -1019,6 +1001,21 @@
   </si>
   <si>
     <t>Date:03.05.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shohidul </t>
+  </si>
+  <si>
+    <t>01718971912</t>
+  </si>
+  <si>
+    <t>030324</t>
+  </si>
+  <si>
+    <t>Jelani Mobile Centre</t>
+  </si>
+  <si>
+    <t>Date:05.05.2021</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -2276,13 +2273,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3155,9 +3178,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3237,12 +3257,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3259,51 +3324,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3480,16 +3500,37 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4027,70 +4068,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="336" t="s">
+      <c r="A1" s="325" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
+      <c r="Q1" s="325"/>
+      <c r="R1" s="325"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="337" t="s">
+      <c r="A2" s="326" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="337"/>
-      <c r="C2" s="337"/>
-      <c r="D2" s="337"/>
-      <c r="E2" s="337"/>
-      <c r="F2" s="337"/>
-      <c r="G2" s="337"/>
-      <c r="H2" s="337"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="337"/>
-      <c r="K2" s="337"/>
-      <c r="L2" s="337"/>
-      <c r="M2" s="337"/>
-      <c r="N2" s="337"/>
-      <c r="O2" s="337"/>
-      <c r="P2" s="337"/>
-      <c r="Q2" s="337"/>
-      <c r="R2" s="337"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326"/>
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="326"/>
+      <c r="N2" s="326"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="344" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="345"/>
-      <c r="C3" s="345"/>
-      <c r="D3" s="345"/>
-      <c r="E3" s="345"/>
-      <c r="F3" s="345"/>
-      <c r="G3" s="345"/>
-      <c r="H3" s="345"/>
-      <c r="I3" s="345"/>
-      <c r="J3" s="345"/>
-      <c r="K3" s="345"/>
-      <c r="L3" s="345"/>
-      <c r="M3" s="345"/>
-      <c r="N3" s="345"/>
-      <c r="O3" s="345"/>
-      <c r="P3" s="345"/>
-      <c r="Q3" s="345"/>
-      <c r="R3" s="346"/>
+      <c r="A3" s="337" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338"/>
+      <c r="R3" s="339"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -4099,58 +4140,58 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="338" t="s">
+      <c r="A4" s="327" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="340" t="s">
+      <c r="B4" s="329" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="340" t="s">
+      <c r="C4" s="329" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="334" t="s">
+      <c r="D4" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="334" t="s">
+      <c r="E4" s="331" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="334" t="s">
+      <c r="F4" s="331" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="334" t="s">
+      <c r="G4" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="334" t="s">
+      <c r="H4" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="334" t="s">
+      <c r="I4" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="334" t="s">
+      <c r="J4" s="331" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="347" t="s">
+      <c r="K4" s="340" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="326" t="s">
+      <c r="L4" s="333" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="328" t="s">
+      <c r="M4" s="342" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="330" t="s">
+      <c r="N4" s="344" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="346" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="326" t="s">
+      <c r="P4" s="333" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="342" t="s">
+      <c r="Q4" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="R4" s="305" t="s">
+      <c r="R4" s="304" t="s">
         <v>32</v>
       </c>
       <c r="T4" s="100"/>
@@ -4160,24 +4201,24 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="339"/>
-      <c r="B5" s="341"/>
-      <c r="C5" s="341"/>
-      <c r="D5" s="335"/>
-      <c r="E5" s="335"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="335"/>
-      <c r="H5" s="335"/>
-      <c r="I5" s="335"/>
-      <c r="J5" s="335"/>
-      <c r="K5" s="348"/>
-      <c r="L5" s="327"/>
-      <c r="M5" s="329"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="333"/>
-      <c r="P5" s="327"/>
-      <c r="Q5" s="343"/>
-      <c r="R5" s="306" t="s">
+      <c r="A5" s="328"/>
+      <c r="B5" s="330"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="334"/>
+      <c r="M5" s="343"/>
+      <c r="N5" s="345"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="334"/>
+      <c r="Q5" s="336"/>
+      <c r="R5" s="305" t="s">
         <v>33</v>
       </c>
       <c r="T5" s="104"/>
@@ -4188,30 +4229,30 @@
       <c r="Y5" s="106"/>
     </row>
     <row r="6" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="314" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="315"/>
-      <c r="C6" s="316">
+      <c r="A6" s="313" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="314"/>
+      <c r="C6" s="315">
         <v>380</v>
       </c>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="316"/>
-      <c r="G6" s="316">
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315">
         <v>1984</v>
       </c>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="316"/>
-      <c r="N6" s="316"/>
-      <c r="O6" s="316"/>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="317"/>
-      <c r="R6" s="307">
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="315"/>
+      <c r="N6" s="315"/>
+      <c r="O6" s="315"/>
+      <c r="P6" s="315"/>
+      <c r="Q6" s="316"/>
+      <c r="R6" s="306">
         <f>SUM(B6:Q6)</f>
         <v>2364</v>
       </c>
@@ -4223,28 +4264,28 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="314" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316">
+      <c r="A7" s="313" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="314"/>
+      <c r="C7" s="315"/>
+      <c r="D7" s="315"/>
+      <c r="E7" s="315"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="315">
         <v>2026</v>
       </c>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="316"/>
-      <c r="Q7" s="317"/>
-      <c r="R7" s="307">
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="315"/>
+      <c r="N7" s="315"/>
+      <c r="O7" s="315"/>
+      <c r="P7" s="315"/>
+      <c r="Q7" s="316"/>
+      <c r="R7" s="306">
         <f>SUM(B7:Q7)</f>
         <v>2026</v>
       </c>
@@ -4256,24 +4297,24 @@
       <c r="X7" s="105"/>
     </row>
     <row r="8" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="314"/>
-      <c r="B8" s="318"/>
-      <c r="C8" s="319"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="319"/>
-      <c r="K8" s="319"/>
-      <c r="L8" s="320"/>
-      <c r="M8" s="319"/>
-      <c r="N8" s="319"/>
-      <c r="O8" s="319"/>
-      <c r="P8" s="319"/>
-      <c r="Q8" s="321"/>
-      <c r="R8" s="307">
+      <c r="A8" s="313"/>
+      <c r="B8" s="317"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="318"/>
+      <c r="E8" s="318"/>
+      <c r="F8" s="318"/>
+      <c r="G8" s="318"/>
+      <c r="H8" s="318"/>
+      <c r="I8" s="318"/>
+      <c r="J8" s="318"/>
+      <c r="K8" s="318"/>
+      <c r="L8" s="319"/>
+      <c r="M8" s="318"/>
+      <c r="N8" s="318"/>
+      <c r="O8" s="318"/>
+      <c r="P8" s="318"/>
+      <c r="Q8" s="320"/>
+      <c r="R8" s="306">
         <f t="shared" ref="R8:R36" si="0">SUM(B8:Q8)</f>
         <v>0</v>
       </c>
@@ -4287,24 +4328,24 @@
       <c r="X8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="314"/>
-      <c r="B9" s="318"/>
-      <c r="C9" s="319"/>
-      <c r="D9" s="319"/>
-      <c r="E9" s="319"/>
-      <c r="F9" s="319"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="319"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="319"/>
-      <c r="M9" s="319"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="319"/>
-      <c r="Q9" s="321"/>
-      <c r="R9" s="307">
+      <c r="A9" s="313"/>
+      <c r="B9" s="317"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="318"/>
+      <c r="F9" s="318"/>
+      <c r="G9" s="318"/>
+      <c r="H9" s="318"/>
+      <c r="I9" s="318"/>
+      <c r="J9" s="318"/>
+      <c r="K9" s="318"/>
+      <c r="L9" s="318"/>
+      <c r="M9" s="318"/>
+      <c r="N9" s="318"/>
+      <c r="O9" s="318"/>
+      <c r="P9" s="318"/>
+      <c r="Q9" s="320"/>
+      <c r="R9" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4316,24 +4357,24 @@
       <c r="X9" s="105"/>
     </row>
     <row r="10" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="314"/>
-      <c r="B10" s="318"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="321"/>
-      <c r="R10" s="307">
+      <c r="A10" s="313"/>
+      <c r="B10" s="317"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="318"/>
+      <c r="G10" s="318"/>
+      <c r="H10" s="318"/>
+      <c r="I10" s="318"/>
+      <c r="J10" s="318"/>
+      <c r="K10" s="318"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="318"/>
+      <c r="N10" s="318"/>
+      <c r="O10" s="318"/>
+      <c r="P10" s="318"/>
+      <c r="Q10" s="320"/>
+      <c r="R10" s="306">
         <f>SUM(B10:Q10)</f>
         <v>0</v>
       </c>
@@ -4345,24 +4386,24 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="314"/>
-      <c r="B11" s="318"/>
-      <c r="C11" s="319"/>
-      <c r="D11" s="319"/>
-      <c r="E11" s="319"/>
-      <c r="F11" s="319"/>
-      <c r="G11" s="319"/>
-      <c r="H11" s="319"/>
-      <c r="I11" s="319"/>
-      <c r="J11" s="319"/>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
-      <c r="M11" s="319"/>
-      <c r="N11" s="319"/>
-      <c r="O11" s="319"/>
-      <c r="P11" s="319"/>
-      <c r="Q11" s="321"/>
-      <c r="R11" s="307">
+      <c r="A11" s="313"/>
+      <c r="B11" s="317"/>
+      <c r="C11" s="318"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="318"/>
+      <c r="G11" s="318"/>
+      <c r="H11" s="318"/>
+      <c r="I11" s="318"/>
+      <c r="J11" s="318"/>
+      <c r="K11" s="318"/>
+      <c r="L11" s="318"/>
+      <c r="M11" s="318"/>
+      <c r="N11" s="318"/>
+      <c r="O11" s="318"/>
+      <c r="P11" s="318"/>
+      <c r="Q11" s="320"/>
+      <c r="R11" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4374,24 +4415,24 @@
       <c r="X11" s="105"/>
     </row>
     <row r="12" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="314"/>
-      <c r="B12" s="318"/>
-      <c r="C12" s="319"/>
-      <c r="D12" s="319"/>
-      <c r="E12" s="319"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="319"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="319"/>
-      <c r="O12" s="319"/>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="321"/>
-      <c r="R12" s="307">
+      <c r="A12" s="313"/>
+      <c r="B12" s="317"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="318"/>
+      <c r="E12" s="318"/>
+      <c r="F12" s="318"/>
+      <c r="G12" s="318"/>
+      <c r="H12" s="318"/>
+      <c r="I12" s="318"/>
+      <c r="J12" s="318"/>
+      <c r="K12" s="318"/>
+      <c r="L12" s="318"/>
+      <c r="M12" s="318"/>
+      <c r="N12" s="318"/>
+      <c r="O12" s="318"/>
+      <c r="P12" s="318"/>
+      <c r="Q12" s="320"/>
+      <c r="R12" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4403,24 +4444,24 @@
       <c r="X12" s="101"/>
     </row>
     <row r="13" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="314"/>
-      <c r="B13" s="318"/>
-      <c r="C13" s="319"/>
-      <c r="D13" s="319"/>
-      <c r="E13" s="319"/>
-      <c r="F13" s="319"/>
-      <c r="G13" s="319"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-      <c r="N13" s="319"/>
-      <c r="O13" s="319"/>
-      <c r="P13" s="319"/>
-      <c r="Q13" s="321"/>
-      <c r="R13" s="307">
+      <c r="A13" s="313"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="318"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="318"/>
+      <c r="G13" s="318"/>
+      <c r="H13" s="318"/>
+      <c r="I13" s="318"/>
+      <c r="J13" s="318"/>
+      <c r="K13" s="318"/>
+      <c r="L13" s="318"/>
+      <c r="M13" s="318"/>
+      <c r="N13" s="318"/>
+      <c r="O13" s="318"/>
+      <c r="P13" s="318"/>
+      <c r="Q13" s="320"/>
+      <c r="R13" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4432,24 +4473,24 @@
       <c r="X13" s="105"/>
     </row>
     <row r="14" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="314"/>
-      <c r="B14" s="318"/>
-      <c r="C14" s="319"/>
-      <c r="D14" s="319"/>
-      <c r="E14" s="319"/>
-      <c r="F14" s="319"/>
-      <c r="G14" s="319"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="319"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="319"/>
-      <c r="L14" s="319"/>
-      <c r="M14" s="319"/>
-      <c r="N14" s="319"/>
-      <c r="O14" s="319"/>
-      <c r="P14" s="319"/>
-      <c r="Q14" s="321"/>
-      <c r="R14" s="307">
+      <c r="A14" s="313"/>
+      <c r="B14" s="317"/>
+      <c r="C14" s="318"/>
+      <c r="D14" s="318"/>
+      <c r="E14" s="318"/>
+      <c r="F14" s="318"/>
+      <c r="G14" s="318"/>
+      <c r="H14" s="318"/>
+      <c r="I14" s="318"/>
+      <c r="J14" s="318"/>
+      <c r="K14" s="318"/>
+      <c r="L14" s="318"/>
+      <c r="M14" s="318"/>
+      <c r="N14" s="318"/>
+      <c r="O14" s="318"/>
+      <c r="P14" s="318"/>
+      <c r="Q14" s="320"/>
+      <c r="R14" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4461,24 +4502,24 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="314"/>
-      <c r="B15" s="318"/>
-      <c r="C15" s="319"/>
-      <c r="D15" s="319"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="319"/>
-      <c r="G15" s="319"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="319"/>
-      <c r="J15" s="319"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
-      <c r="N15" s="319"/>
-      <c r="O15" s="319"/>
-      <c r="P15" s="319"/>
-      <c r="Q15" s="321"/>
-      <c r="R15" s="307">
+      <c r="A15" s="313"/>
+      <c r="B15" s="317"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="318"/>
+      <c r="I15" s="318"/>
+      <c r="J15" s="318"/>
+      <c r="K15" s="318"/>
+      <c r="L15" s="318"/>
+      <c r="M15" s="318"/>
+      <c r="N15" s="318"/>
+      <c r="O15" s="318"/>
+      <c r="P15" s="318"/>
+      <c r="Q15" s="320"/>
+      <c r="R15" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4490,24 +4531,24 @@
       <c r="X15" s="105"/>
     </row>
     <row r="16" spans="1:25" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="314"/>
-      <c r="B16" s="318"/>
-      <c r="C16" s="319"/>
-      <c r="D16" s="319"/>
-      <c r="E16" s="319"/>
-      <c r="F16" s="319"/>
-      <c r="G16" s="319"/>
-      <c r="H16" s="319"/>
-      <c r="I16" s="319"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="319"/>
-      <c r="M16" s="319"/>
-      <c r="N16" s="319"/>
-      <c r="O16" s="319"/>
-      <c r="P16" s="319"/>
-      <c r="Q16" s="321"/>
-      <c r="R16" s="307">
+      <c r="A16" s="313"/>
+      <c r="B16" s="317"/>
+      <c r="C16" s="318"/>
+      <c r="D16" s="318"/>
+      <c r="E16" s="318"/>
+      <c r="F16" s="318"/>
+      <c r="G16" s="318"/>
+      <c r="H16" s="318"/>
+      <c r="I16" s="318"/>
+      <c r="J16" s="318"/>
+      <c r="K16" s="318"/>
+      <c r="L16" s="318"/>
+      <c r="M16" s="318"/>
+      <c r="N16" s="318"/>
+      <c r="O16" s="318"/>
+      <c r="P16" s="318"/>
+      <c r="Q16" s="320"/>
+      <c r="R16" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4519,24 +4560,24 @@
       <c r="X16" s="101"/>
     </row>
     <row r="17" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="314"/>
-      <c r="B17" s="318"/>
-      <c r="C17" s="319"/>
-      <c r="D17" s="319"/>
-      <c r="E17" s="319"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="319"/>
-      <c r="H17" s="319"/>
-      <c r="I17" s="319"/>
-      <c r="J17" s="319"/>
-      <c r="K17" s="319"/>
-      <c r="L17" s="319"/>
-      <c r="M17" s="321"/>
-      <c r="N17" s="319"/>
-      <c r="O17" s="321"/>
-      <c r="P17" s="321"/>
-      <c r="Q17" s="321"/>
-      <c r="R17" s="307">
+      <c r="A17" s="313"/>
+      <c r="B17" s="317"/>
+      <c r="C17" s="318"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="318"/>
+      <c r="F17" s="318"/>
+      <c r="G17" s="318"/>
+      <c r="H17" s="318"/>
+      <c r="I17" s="318"/>
+      <c r="J17" s="318"/>
+      <c r="K17" s="318"/>
+      <c r="L17" s="318"/>
+      <c r="M17" s="320"/>
+      <c r="N17" s="318"/>
+      <c r="O17" s="320"/>
+      <c r="P17" s="320"/>
+      <c r="Q17" s="320"/>
+      <c r="R17" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4548,24 +4589,24 @@
       <c r="X17" s="105"/>
     </row>
     <row r="18" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="314"/>
-      <c r="B18" s="318"/>
-      <c r="C18" s="319"/>
-      <c r="D18" s="319"/>
-      <c r="E18" s="319"/>
-      <c r="F18" s="319"/>
-      <c r="G18" s="319"/>
-      <c r="H18" s="319"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="319"/>
-      <c r="M18" s="321"/>
-      <c r="N18" s="319"/>
-      <c r="O18" s="321"/>
-      <c r="P18" s="321"/>
-      <c r="Q18" s="321"/>
-      <c r="R18" s="307">
+      <c r="A18" s="313"/>
+      <c r="B18" s="317"/>
+      <c r="C18" s="318"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="318"/>
+      <c r="F18" s="318"/>
+      <c r="G18" s="318"/>
+      <c r="H18" s="318"/>
+      <c r="I18" s="318"/>
+      <c r="J18" s="318"/>
+      <c r="K18" s="318"/>
+      <c r="L18" s="318"/>
+      <c r="M18" s="320"/>
+      <c r="N18" s="318"/>
+      <c r="O18" s="320"/>
+      <c r="P18" s="320"/>
+      <c r="Q18" s="320"/>
+      <c r="R18" s="306">
         <f>SUM(B18:Q18)</f>
         <v>0</v>
       </c>
@@ -4577,24 +4618,24 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="314"/>
-      <c r="B19" s="318"/>
-      <c r="C19" s="319"/>
-      <c r="D19" s="319"/>
-      <c r="E19" s="319"/>
-      <c r="F19" s="319"/>
-      <c r="G19" s="319"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="321"/>
-      <c r="N19" s="319"/>
-      <c r="O19" s="321"/>
-      <c r="P19" s="321"/>
-      <c r="Q19" s="321"/>
-      <c r="R19" s="307">
+      <c r="A19" s="313"/>
+      <c r="B19" s="317"/>
+      <c r="C19" s="318"/>
+      <c r="D19" s="318"/>
+      <c r="E19" s="318"/>
+      <c r="F19" s="318"/>
+      <c r="G19" s="318"/>
+      <c r="H19" s="318"/>
+      <c r="I19" s="318"/>
+      <c r="J19" s="318"/>
+      <c r="K19" s="318"/>
+      <c r="L19" s="318"/>
+      <c r="M19" s="320"/>
+      <c r="N19" s="318"/>
+      <c r="O19" s="320"/>
+      <c r="P19" s="320"/>
+      <c r="Q19" s="320"/>
+      <c r="R19" s="306">
         <f>SUM(B19:Q19)</f>
         <v>0</v>
       </c>
@@ -4606,24 +4647,24 @@
       <c r="X19" s="105"/>
     </row>
     <row r="20" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="314"/>
-      <c r="B20" s="318"/>
-      <c r="C20" s="319"/>
-      <c r="D20" s="319"/>
-      <c r="E20" s="319"/>
-      <c r="F20" s="319"/>
-      <c r="G20" s="319"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="319"/>
-      <c r="L20" s="319"/>
-      <c r="M20" s="319"/>
-      <c r="N20" s="319"/>
-      <c r="O20" s="319"/>
-      <c r="P20" s="319"/>
-      <c r="Q20" s="321"/>
-      <c r="R20" s="307">
+      <c r="A20" s="313"/>
+      <c r="B20" s="317"/>
+      <c r="C20" s="318"/>
+      <c r="D20" s="318"/>
+      <c r="E20" s="318"/>
+      <c r="F20" s="318"/>
+      <c r="G20" s="318"/>
+      <c r="H20" s="318"/>
+      <c r="I20" s="318"/>
+      <c r="J20" s="318"/>
+      <c r="K20" s="318"/>
+      <c r="L20" s="318"/>
+      <c r="M20" s="318"/>
+      <c r="N20" s="318"/>
+      <c r="O20" s="318"/>
+      <c r="P20" s="318"/>
+      <c r="Q20" s="320"/>
+      <c r="R20" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4635,24 +4676,24 @@
       <c r="X20" s="101"/>
     </row>
     <row r="21" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="314"/>
-      <c r="B21" s="318"/>
-      <c r="C21" s="319"/>
-      <c r="D21" s="319"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="319"/>
-      <c r="G21" s="319"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="319"/>
-      <c r="L21" s="319"/>
-      <c r="M21" s="319"/>
-      <c r="N21" s="319"/>
-      <c r="O21" s="319"/>
-      <c r="P21" s="319"/>
-      <c r="Q21" s="321"/>
-      <c r="R21" s="307">
+      <c r="A21" s="313"/>
+      <c r="B21" s="317"/>
+      <c r="C21" s="318"/>
+      <c r="D21" s="318"/>
+      <c r="E21" s="318"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="318"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="318"/>
+      <c r="J21" s="318"/>
+      <c r="K21" s="318"/>
+      <c r="L21" s="318"/>
+      <c r="M21" s="318"/>
+      <c r="N21" s="318"/>
+      <c r="O21" s="318"/>
+      <c r="P21" s="318"/>
+      <c r="Q21" s="320"/>
+      <c r="R21" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4660,24 +4701,24 @@
       <c r="T21" s="69"/>
     </row>
     <row r="22" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="314"/>
-      <c r="B22" s="318"/>
-      <c r="C22" s="319"/>
-      <c r="D22" s="319"/>
-      <c r="E22" s="319"/>
-      <c r="F22" s="319"/>
-      <c r="G22" s="319"/>
-      <c r="H22" s="319"/>
-      <c r="I22" s="319"/>
-      <c r="J22" s="319"/>
-      <c r="K22" s="319"/>
-      <c r="L22" s="319"/>
-      <c r="M22" s="319"/>
-      <c r="N22" s="319"/>
-      <c r="O22" s="319"/>
-      <c r="P22" s="319"/>
-      <c r="Q22" s="321"/>
-      <c r="R22" s="307">
+      <c r="A22" s="313"/>
+      <c r="B22" s="317"/>
+      <c r="C22" s="318"/>
+      <c r="D22" s="318"/>
+      <c r="E22" s="318"/>
+      <c r="F22" s="318"/>
+      <c r="G22" s="318"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="318"/>
+      <c r="J22" s="318"/>
+      <c r="K22" s="318"/>
+      <c r="L22" s="318"/>
+      <c r="M22" s="318"/>
+      <c r="N22" s="318"/>
+      <c r="O22" s="318"/>
+      <c r="P22" s="318"/>
+      <c r="Q22" s="320"/>
+      <c r="R22" s="306">
         <f>SUM(B22:Q22)</f>
         <v>0</v>
       </c>
@@ -4685,24 +4726,24 @@
       <c r="T22" s="69"/>
     </row>
     <row r="23" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="314"/>
-      <c r="B23" s="318"/>
-      <c r="C23" s="319"/>
-      <c r="D23" s="319"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="319"/>
-      <c r="L23" s="319"/>
-      <c r="M23" s="319"/>
-      <c r="N23" s="319"/>
-      <c r="O23" s="319"/>
-      <c r="P23" s="319"/>
-      <c r="Q23" s="321"/>
-      <c r="R23" s="307">
+      <c r="A23" s="313"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="318"/>
+      <c r="L23" s="318"/>
+      <c r="M23" s="318"/>
+      <c r="N23" s="318"/>
+      <c r="O23" s="318"/>
+      <c r="P23" s="318"/>
+      <c r="Q23" s="320"/>
+      <c r="R23" s="306">
         <f>SUM(B23:Q23)</f>
         <v>0</v>
       </c>
@@ -4710,24 +4751,24 @@
       <c r="T23" s="69"/>
     </row>
     <row r="24" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="314"/>
-      <c r="B24" s="318"/>
-      <c r="C24" s="319"/>
-      <c r="D24" s="319"/>
-      <c r="E24" s="319"/>
-      <c r="F24" s="319"/>
-      <c r="G24" s="319"/>
-      <c r="H24" s="319"/>
-      <c r="I24" s="319"/>
-      <c r="J24" s="319"/>
-      <c r="K24" s="319"/>
-      <c r="L24" s="319"/>
-      <c r="M24" s="319"/>
-      <c r="N24" s="319"/>
-      <c r="O24" s="319"/>
-      <c r="P24" s="319"/>
-      <c r="Q24" s="321"/>
-      <c r="R24" s="307">
+      <c r="A24" s="313"/>
+      <c r="B24" s="317"/>
+      <c r="C24" s="318"/>
+      <c r="D24" s="318"/>
+      <c r="E24" s="318"/>
+      <c r="F24" s="318"/>
+      <c r="G24" s="318"/>
+      <c r="H24" s="318"/>
+      <c r="I24" s="318"/>
+      <c r="J24" s="318"/>
+      <c r="K24" s="318"/>
+      <c r="L24" s="318"/>
+      <c r="M24" s="318"/>
+      <c r="N24" s="318"/>
+      <c r="O24" s="318"/>
+      <c r="P24" s="318"/>
+      <c r="Q24" s="320"/>
+      <c r="R24" s="306">
         <f>SUM(B24:Q24)</f>
         <v>0</v>
       </c>
@@ -4738,24 +4779,24 @@
       <c r="X24" s="112"/>
     </row>
     <row r="25" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="314"/>
-      <c r="B25" s="318"/>
-      <c r="C25" s="319"/>
-      <c r="D25" s="319"/>
-      <c r="E25" s="319"/>
-      <c r="F25" s="319"/>
-      <c r="G25" s="319"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="319"/>
-      <c r="Q25" s="321"/>
-      <c r="R25" s="307">
+      <c r="A25" s="313"/>
+      <c r="B25" s="317"/>
+      <c r="C25" s="318"/>
+      <c r="D25" s="318"/>
+      <c r="E25" s="318"/>
+      <c r="F25" s="318"/>
+      <c r="G25" s="318"/>
+      <c r="H25" s="318"/>
+      <c r="I25" s="318"/>
+      <c r="J25" s="318"/>
+      <c r="K25" s="318"/>
+      <c r="L25" s="318"/>
+      <c r="M25" s="318"/>
+      <c r="N25" s="318"/>
+      <c r="O25" s="318"/>
+      <c r="P25" s="318"/>
+      <c r="Q25" s="320"/>
+      <c r="R25" s="306">
         <f>SUM(B25:Q25)</f>
         <v>0</v>
       </c>
@@ -4763,24 +4804,24 @@
       <c r="T25" s="69"/>
     </row>
     <row r="26" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="314"/>
-      <c r="B26" s="318"/>
-      <c r="C26" s="319"/>
-      <c r="D26" s="319"/>
-      <c r="E26" s="319"/>
-      <c r="F26" s="319"/>
-      <c r="G26" s="319"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="319"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="319"/>
-      <c r="M26" s="319"/>
-      <c r="N26" s="319"/>
-      <c r="O26" s="319"/>
-      <c r="P26" s="319"/>
-      <c r="Q26" s="321"/>
-      <c r="R26" s="307">
+      <c r="A26" s="313"/>
+      <c r="B26" s="317"/>
+      <c r="C26" s="318"/>
+      <c r="D26" s="318"/>
+      <c r="E26" s="318"/>
+      <c r="F26" s="318"/>
+      <c r="G26" s="318"/>
+      <c r="H26" s="318"/>
+      <c r="I26" s="318"/>
+      <c r="J26" s="318"/>
+      <c r="K26" s="318"/>
+      <c r="L26" s="318"/>
+      <c r="M26" s="318"/>
+      <c r="N26" s="318"/>
+      <c r="O26" s="318"/>
+      <c r="P26" s="318"/>
+      <c r="Q26" s="320"/>
+      <c r="R26" s="306">
         <f>SUM(B26:Q26)</f>
         <v>0</v>
       </c>
@@ -4788,24 +4829,24 @@
       <c r="T26" s="69"/>
     </row>
     <row r="27" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="319"/>
-      <c r="B27" s="318"/>
-      <c r="C27" s="319"/>
-      <c r="D27" s="319"/>
-      <c r="E27" s="319"/>
-      <c r="F27" s="319"/>
-      <c r="G27" s="319"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-      <c r="L27" s="319"/>
-      <c r="M27" s="319"/>
-      <c r="N27" s="319"/>
-      <c r="O27" s="319"/>
-      <c r="P27" s="319"/>
-      <c r="Q27" s="321"/>
-      <c r="R27" s="307">
+      <c r="A27" s="318"/>
+      <c r="B27" s="317"/>
+      <c r="C27" s="318"/>
+      <c r="D27" s="318"/>
+      <c r="E27" s="318"/>
+      <c r="F27" s="318"/>
+      <c r="G27" s="318"/>
+      <c r="H27" s="318"/>
+      <c r="I27" s="318"/>
+      <c r="J27" s="318"/>
+      <c r="K27" s="318"/>
+      <c r="L27" s="318"/>
+      <c r="M27" s="318"/>
+      <c r="N27" s="318"/>
+      <c r="O27" s="318"/>
+      <c r="P27" s="318"/>
+      <c r="Q27" s="320"/>
+      <c r="R27" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4813,24 +4854,24 @@
       <c r="T27" s="69"/>
     </row>
     <row r="28" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="319"/>
-      <c r="B28" s="318"/>
-      <c r="C28" s="319"/>
-      <c r="D28" s="319"/>
-      <c r="E28" s="319"/>
-      <c r="F28" s="319"/>
-      <c r="G28" s="319"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="319"/>
-      <c r="L28" s="319"/>
-      <c r="M28" s="319"/>
-      <c r="N28" s="319"/>
-      <c r="O28" s="319"/>
-      <c r="P28" s="319"/>
-      <c r="Q28" s="321"/>
-      <c r="R28" s="307">
+      <c r="A28" s="318"/>
+      <c r="B28" s="317"/>
+      <c r="C28" s="318"/>
+      <c r="D28" s="318"/>
+      <c r="E28" s="318"/>
+      <c r="F28" s="318"/>
+      <c r="G28" s="318"/>
+      <c r="H28" s="318"/>
+      <c r="I28" s="318"/>
+      <c r="J28" s="318"/>
+      <c r="K28" s="318"/>
+      <c r="L28" s="318"/>
+      <c r="M28" s="318"/>
+      <c r="N28" s="318"/>
+      <c r="O28" s="318"/>
+      <c r="P28" s="318"/>
+      <c r="Q28" s="320"/>
+      <c r="R28" s="306">
         <f>SUM(B28:Q28)</f>
         <v>0</v>
       </c>
@@ -4840,24 +4881,24 @@
       <c r="V28" s="113"/>
     </row>
     <row r="29" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="319"/>
-      <c r="B29" s="318"/>
-      <c r="C29" s="319"/>
-      <c r="D29" s="319"/>
-      <c r="E29" s="319"/>
-      <c r="F29" s="319"/>
-      <c r="G29" s="319"/>
-      <c r="H29" s="319"/>
-      <c r="I29" s="319"/>
-      <c r="J29" s="319"/>
-      <c r="K29" s="319"/>
-      <c r="L29" s="319"/>
-      <c r="M29" s="319"/>
-      <c r="N29" s="319"/>
-      <c r="O29" s="319"/>
-      <c r="P29" s="319"/>
-      <c r="Q29" s="321"/>
-      <c r="R29" s="307">
+      <c r="A29" s="318"/>
+      <c r="B29" s="317"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="318"/>
+      <c r="E29" s="318"/>
+      <c r="F29" s="318"/>
+      <c r="G29" s="318"/>
+      <c r="H29" s="318"/>
+      <c r="I29" s="318"/>
+      <c r="J29" s="318"/>
+      <c r="K29" s="318"/>
+      <c r="L29" s="318"/>
+      <c r="M29" s="318"/>
+      <c r="N29" s="318"/>
+      <c r="O29" s="318"/>
+      <c r="P29" s="318"/>
+      <c r="Q29" s="320"/>
+      <c r="R29" s="306">
         <f>SUM(B29:Q29)</f>
         <v>0</v>
       </c>
@@ -4867,24 +4908,24 @@
       <c r="V29" s="114"/>
     </row>
     <row r="30" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="319"/>
-      <c r="B30" s="318"/>
-      <c r="C30" s="319"/>
-      <c r="D30" s="319"/>
-      <c r="E30" s="319"/>
-      <c r="F30" s="319"/>
-      <c r="G30" s="319"/>
-      <c r="H30" s="319"/>
-      <c r="I30" s="319"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="319"/>
-      <c r="L30" s="319"/>
-      <c r="M30" s="319"/>
-      <c r="N30" s="319"/>
-      <c r="O30" s="319"/>
-      <c r="P30" s="319"/>
-      <c r="Q30" s="321"/>
-      <c r="R30" s="307">
+      <c r="A30" s="318"/>
+      <c r="B30" s="317"/>
+      <c r="C30" s="318"/>
+      <c r="D30" s="318"/>
+      <c r="E30" s="318"/>
+      <c r="F30" s="318"/>
+      <c r="G30" s="318"/>
+      <c r="H30" s="318"/>
+      <c r="I30" s="318"/>
+      <c r="J30" s="318"/>
+      <c r="K30" s="318"/>
+      <c r="L30" s="318"/>
+      <c r="M30" s="318"/>
+      <c r="N30" s="318"/>
+      <c r="O30" s="318"/>
+      <c r="P30" s="318"/>
+      <c r="Q30" s="320"/>
+      <c r="R30" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4894,218 +4935,218 @@
       <c r="V30" s="113"/>
     </row>
     <row r="31" spans="1:24" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="319"/>
-      <c r="B31" s="318"/>
-      <c r="C31" s="319"/>
-      <c r="D31" s="319"/>
-      <c r="E31" s="319"/>
-      <c r="F31" s="319"/>
-      <c r="G31" s="319"/>
-      <c r="H31" s="322"/>
-      <c r="I31" s="319"/>
-      <c r="J31" s="319"/>
-      <c r="K31" s="319"/>
-      <c r="L31" s="319"/>
-      <c r="M31" s="319"/>
-      <c r="N31" s="319"/>
-      <c r="O31" s="319"/>
-      <c r="P31" s="319"/>
-      <c r="Q31" s="321"/>
-      <c r="R31" s="307">
+      <c r="A31" s="318"/>
+      <c r="B31" s="317"/>
+      <c r="C31" s="318"/>
+      <c r="D31" s="318"/>
+      <c r="E31" s="318"/>
+      <c r="F31" s="318"/>
+      <c r="G31" s="318"/>
+      <c r="H31" s="321"/>
+      <c r="I31" s="318"/>
+      <c r="J31" s="318"/>
+      <c r="K31" s="318"/>
+      <c r="L31" s="318"/>
+      <c r="M31" s="318"/>
+      <c r="N31" s="318"/>
+      <c r="O31" s="318"/>
+      <c r="P31" s="318"/>
+      <c r="Q31" s="320"/>
+      <c r="R31" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S31" s="107"/>
     </row>
     <row r="32" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="319"/>
-      <c r="B32" s="318"/>
-      <c r="C32" s="319"/>
-      <c r="D32" s="319"/>
-      <c r="E32" s="319"/>
-      <c r="F32" s="319"/>
-      <c r="G32" s="319"/>
-      <c r="H32" s="319"/>
-      <c r="I32" s="319"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="319"/>
-      <c r="L32" s="319"/>
-      <c r="M32" s="319"/>
-      <c r="N32" s="319"/>
-      <c r="O32" s="319"/>
-      <c r="P32" s="319"/>
-      <c r="Q32" s="321"/>
-      <c r="R32" s="307">
+      <c r="A32" s="318"/>
+      <c r="B32" s="317"/>
+      <c r="C32" s="318"/>
+      <c r="D32" s="318"/>
+      <c r="E32" s="318"/>
+      <c r="F32" s="318"/>
+      <c r="G32" s="318"/>
+      <c r="H32" s="318"/>
+      <c r="I32" s="318"/>
+      <c r="J32" s="318"/>
+      <c r="K32" s="318"/>
+      <c r="L32" s="318"/>
+      <c r="M32" s="318"/>
+      <c r="N32" s="318"/>
+      <c r="O32" s="318"/>
+      <c r="P32" s="318"/>
+      <c r="Q32" s="320"/>
+      <c r="R32" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S32" s="111"/>
     </row>
     <row r="33" spans="1:19" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="319"/>
-      <c r="B33" s="318"/>
-      <c r="C33" s="319"/>
-      <c r="D33" s="319"/>
-      <c r="E33" s="319"/>
-      <c r="F33" s="319"/>
-      <c r="G33" s="319"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="319"/>
-      <c r="K33" s="319"/>
-      <c r="L33" s="319"/>
-      <c r="M33" s="319"/>
-      <c r="N33" s="319"/>
-      <c r="O33" s="319"/>
-      <c r="P33" s="319"/>
-      <c r="Q33" s="321"/>
-      <c r="R33" s="307">
+      <c r="A33" s="318"/>
+      <c r="B33" s="317"/>
+      <c r="C33" s="318"/>
+      <c r="D33" s="318"/>
+      <c r="E33" s="318"/>
+      <c r="F33" s="318"/>
+      <c r="G33" s="318"/>
+      <c r="H33" s="318"/>
+      <c r="I33" s="318"/>
+      <c r="J33" s="318"/>
+      <c r="K33" s="318"/>
+      <c r="L33" s="318"/>
+      <c r="M33" s="318"/>
+      <c r="N33" s="318"/>
+      <c r="O33" s="318"/>
+      <c r="P33" s="318"/>
+      <c r="Q33" s="320"/>
+      <c r="R33" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S33" s="107"/>
     </row>
     <row r="34" spans="1:19" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="319"/>
-      <c r="B34" s="318"/>
-      <c r="C34" s="319"/>
-      <c r="D34" s="319"/>
-      <c r="E34" s="319"/>
-      <c r="F34" s="319"/>
-      <c r="G34" s="319"/>
-      <c r="H34" s="319"/>
-      <c r="I34" s="319"/>
-      <c r="J34" s="319"/>
-      <c r="K34" s="319"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="319"/>
-      <c r="N34" s="319"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="319"/>
-      <c r="Q34" s="321"/>
-      <c r="R34" s="307">
+      <c r="A34" s="318"/>
+      <c r="B34" s="317"/>
+      <c r="C34" s="318"/>
+      <c r="D34" s="318"/>
+      <c r="E34" s="318"/>
+      <c r="F34" s="318"/>
+      <c r="G34" s="318"/>
+      <c r="H34" s="318"/>
+      <c r="I34" s="318"/>
+      <c r="J34" s="318"/>
+      <c r="K34" s="318"/>
+      <c r="L34" s="318"/>
+      <c r="M34" s="318"/>
+      <c r="N34" s="318"/>
+      <c r="O34" s="318"/>
+      <c r="P34" s="318"/>
+      <c r="Q34" s="320"/>
+      <c r="R34" s="306">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S34" s="107"/>
     </row>
     <row r="35" spans="1:19" s="106" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="319"/>
-      <c r="B35" s="318"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="319"/>
-      <c r="E35" s="319"/>
-      <c r="F35" s="319"/>
-      <c r="G35" s="319"/>
-      <c r="H35" s="319"/>
-      <c r="I35" s="319"/>
-      <c r="J35" s="319"/>
-      <c r="K35" s="319"/>
-      <c r="L35" s="319"/>
-      <c r="M35" s="319"/>
-      <c r="N35" s="319"/>
-      <c r="O35" s="319"/>
-      <c r="P35" s="319"/>
-      <c r="Q35" s="321"/>
-      <c r="R35" s="307">
+      <c r="A35" s="318"/>
+      <c r="B35" s="317"/>
+      <c r="C35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="318"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="318"/>
+      <c r="H35" s="318"/>
+      <c r="I35" s="318"/>
+      <c r="J35" s="318"/>
+      <c r="K35" s="318"/>
+      <c r="L35" s="318"/>
+      <c r="M35" s="318"/>
+      <c r="N35" s="318"/>
+      <c r="O35" s="318"/>
+      <c r="P35" s="318"/>
+      <c r="Q35" s="320"/>
+      <c r="R35" s="306">
         <f>SUM(B35:Q35)</f>
         <v>0</v>
       </c>
       <c r="S35" s="107"/>
     </row>
     <row r="36" spans="1:19" s="106" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="319"/>
-      <c r="B36" s="323"/>
-      <c r="C36" s="324"/>
-      <c r="D36" s="324"/>
-      <c r="E36" s="324"/>
-      <c r="F36" s="324"/>
-      <c r="G36" s="324"/>
-      <c r="H36" s="324"/>
-      <c r="I36" s="324"/>
-      <c r="J36" s="324"/>
-      <c r="K36" s="324"/>
-      <c r="L36" s="324"/>
-      <c r="M36" s="324"/>
-      <c r="N36" s="324"/>
-      <c r="O36" s="324"/>
-      <c r="P36" s="324"/>
-      <c r="Q36" s="325"/>
-      <c r="R36" s="308">
+      <c r="A36" s="318"/>
+      <c r="B36" s="322"/>
+      <c r="C36" s="323"/>
+      <c r="D36" s="323"/>
+      <c r="E36" s="323"/>
+      <c r="F36" s="323"/>
+      <c r="G36" s="323"/>
+      <c r="H36" s="323"/>
+      <c r="I36" s="323"/>
+      <c r="J36" s="323"/>
+      <c r="K36" s="323"/>
+      <c r="L36" s="323"/>
+      <c r="M36" s="323"/>
+      <c r="N36" s="323"/>
+      <c r="O36" s="323"/>
+      <c r="P36" s="323"/>
+      <c r="Q36" s="324"/>
+      <c r="R36" s="307">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S36" s="107"/>
     </row>
     <row r="37" spans="1:19" s="115" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="309" t="s">
+      <c r="A37" s="308" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="310">
+      <c r="B37" s="309">
         <f>SUM(B6:B36)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="311">
+      <c r="C37" s="310">
         <f t="shared" ref="C37:Q37" si="1">SUM(C6:C36)</f>
         <v>380</v>
       </c>
-      <c r="D37" s="311">
+      <c r="D37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E37" s="311">
+      <c r="E37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="311">
+      <c r="F37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G37" s="311">
+      <c r="G37" s="310">
         <f t="shared" si="1"/>
         <v>4010</v>
       </c>
-      <c r="H37" s="311">
+      <c r="H37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="311">
+      <c r="I37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J37" s="311">
+      <c r="J37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K37" s="311">
+      <c r="K37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="311">
+      <c r="L37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M37" s="311">
+      <c r="M37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N37" s="311">
+      <c r="N37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O37" s="311">
+      <c r="O37" s="310">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P37" s="311">
+      <c r="P37" s="310">
         <f>SUM(P6:P36)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="312">
+      <c r="Q37" s="311">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R37" s="313">
+      <c r="R37" s="312">
         <f>SUM(R6:R36)</f>
         <v>4390</v>
       </c>
@@ -7104,6 +7145,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7120,10 +7165,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7150,12 +7191,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="349" t="s">
+      <c r="A1" s="348" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="351"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="350"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -7170,12 +7211,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="351" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
       <c r="E2" s="13"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
@@ -7269,7 +7310,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B6" s="50">
         <v>310000</v>
@@ -7299,7 +7340,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B7" s="50">
         <v>376000</v>
@@ -9071,7 +9112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
@@ -9093,25 +9134,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="352" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="355"/>
+      <c r="B1" s="353"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="354"/>
       <c r="G1" s="21"/>
       <c r="H1" s="122"/>
       <c r="I1" s="122"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="356" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="357"/>
-      <c r="C2" s="357"/>
-      <c r="D2" s="357"/>
-      <c r="E2" s="358"/>
+      <c r="A2" s="355" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="357"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
@@ -9136,11 +9177,11 @@
       <c r="D4" s="18"/>
       <c r="E4" s="85"/>
       <c r="F4" s="28"/>
-      <c r="J4" s="359" t="s">
+      <c r="J4" s="358" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="360"/>
-      <c r="L4" s="361"/>
+      <c r="K4" s="359"/>
+      <c r="L4" s="360"/>
     </row>
     <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="86" t="s">
@@ -9237,7 +9278,7 @@
       <c r="K8" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="304"/>
+      <c r="L8" s="303"/>
       <c r="M8" s="20">
         <v>1150</v>
       </c>
@@ -9263,7 +9304,7 @@
       <c r="K9" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="L9" s="304"/>
+      <c r="L9" s="303"/>
       <c r="M9" s="20">
         <v>300</v>
       </c>
@@ -9281,7 +9322,7 @@
       <c r="K10" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="L10" s="304"/>
+      <c r="L10" s="303"/>
       <c r="M10" s="20">
         <v>450</v>
       </c>
@@ -9307,7 +9348,7 @@
       <c r="K11" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="L11" s="304"/>
+      <c r="L11" s="303"/>
       <c r="M11" s="20">
         <v>410</v>
       </c>
@@ -9332,7 +9373,7 @@
         <v>126</v>
       </c>
       <c r="K12" s="165" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L12" s="165">
         <v>36095</v>
@@ -9351,7 +9392,7 @@
       <c r="K13" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="L13" s="304"/>
+      <c r="L13" s="303"/>
       <c r="M13" s="20">
         <v>440</v>
       </c>
@@ -9421,11 +9462,11 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="23.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="362"/>
-      <c r="B17" s="363"/>
-      <c r="C17" s="363"/>
-      <c r="D17" s="363"/>
-      <c r="E17" s="364"/>
+      <c r="A17" s="361"/>
+      <c r="B17" s="362"/>
+      <c r="C17" s="362"/>
+      <c r="D17" s="362"/>
+      <c r="E17" s="363"/>
       <c r="F17" s="26"/>
       <c r="J17" s="169"/>
       <c r="K17" s="169"/>
@@ -9455,7 +9496,7 @@
       <c r="D19" s="13"/>
       <c r="F19" s="26"/>
       <c r="J19" s="83" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K19" s="83" t="s">
         <v>104</v>
@@ -9470,7 +9511,7 @@
       <c r="D20" s="13"/>
       <c r="F20" s="26"/>
       <c r="J20" s="83" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K20" s="83" t="s">
         <v>104</v>
@@ -9485,7 +9526,7 @@
       <c r="D21" s="13"/>
       <c r="F21" s="26"/>
       <c r="J21" s="83" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K21" s="83" t="s">
         <v>104</v>
@@ -9498,8 +9539,8 @@
       <c r="B22" s="8"/>
       <c r="C22" s="27"/>
       <c r="F22" s="26"/>
-      <c r="J22" s="302" t="s">
-        <v>165</v>
+      <c r="J22" s="301" t="s">
+        <v>160</v>
       </c>
       <c r="K22" s="83" t="s">
         <v>102</v>
@@ -9514,10 +9555,10 @@
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="26"/>
-      <c r="J23" s="365" t="s">
+      <c r="J23" s="364" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="365"/>
+      <c r="K23" s="364"/>
       <c r="L23" s="170">
         <f>SUM(L6:L22)</f>
         <v>82494</v>
@@ -9637,116 +9678,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="371" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="372"/>
-      <c r="L1" s="372"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="372"/>
-      <c r="P1" s="372"/>
-      <c r="Q1" s="372"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
+      <c r="O1" s="371"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="372"/>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="371"/>
+      <c r="N2" s="371"/>
+      <c r="O2" s="371"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
     </row>
     <row r="3" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="372" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="373"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="373"/>
-      <c r="Q3" s="373"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="372"/>
     </row>
     <row r="4" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="374" t="s">
+      <c r="A4" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374"/>
-      <c r="I4" s="374"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="374"/>
-      <c r="L4" s="374"/>
-      <c r="M4" s="374"/>
-      <c r="N4" s="374"/>
-      <c r="O4" s="374"/>
-      <c r="P4" s="374"/>
-      <c r="Q4" s="374"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="373"/>
+      <c r="M4" s="373"/>
+      <c r="N4" s="373"/>
+      <c r="O4" s="373"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="373"/>
     </row>
     <row r="5" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="375" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="376"/>
+      <c r="A5" s="374" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="375"/>
       <c r="C5" s="172"/>
       <c r="D5" s="173" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="173"/>
-      <c r="F5" s="370" t="s">
+      <c r="F5" s="369" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="370"/>
-      <c r="H5" s="370"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="370"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="370"/>
-      <c r="Q5" s="371"/>
-      <c r="T5" s="369" t="s">
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="369"/>
+      <c r="Q5" s="370"/>
+      <c r="T5" s="368" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="370"/>
-      <c r="V5" s="371"/>
+      <c r="U5" s="369"/>
+      <c r="V5" s="370"/>
     </row>
     <row r="6" spans="1:22" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="295" t="s">
@@ -9970,7 +10011,7 @@
       <c r="P11" s="149"/>
       <c r="Q11" s="154"/>
       <c r="T11" s="167" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="U11" s="167">
         <v>262</v>
@@ -10006,7 +10047,7 @@
       <c r="P12" s="149"/>
       <c r="Q12" s="154"/>
       <c r="T12" s="167" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U12" s="167">
         <v>478</v>
@@ -10186,10 +10227,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="146" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D18" s="134"/>
       <c r="E18" s="130"/>
@@ -10214,10 +10255,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="146" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D19" s="134"/>
       <c r="E19" s="130"/>
@@ -10233,21 +10274,21 @@
       <c r="O19" s="149"/>
       <c r="P19" s="149"/>
       <c r="Q19" s="154"/>
-      <c r="T19" s="377" t="s">
+      <c r="T19" s="376" t="s">
         <v>134</v>
       </c>
-      <c r="U19" s="377"/>
-      <c r="V19" s="377"/>
+      <c r="U19" s="376"/>
+      <c r="V19" s="376"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="133">
         <v>14</v>
       </c>
       <c r="B20" s="146" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C20" s="135" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D20" s="157"/>
       <c r="E20" s="145"/>
@@ -10293,10 +10334,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="146" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C21" s="130" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D21" s="157"/>
       <c r="E21" s="145"/>
@@ -10330,10 +10371,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="146" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C22" s="130" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D22" s="157"/>
       <c r="E22" s="145"/>
@@ -10349,14 +10390,14 @@
       <c r="O22" s="149"/>
       <c r="P22" s="149"/>
       <c r="Q22" s="154"/>
-      <c r="T22" s="301" t="s">
+      <c r="T22" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="U22" s="301">
+      <c r="U22" s="300">
         <f>U20+U21</f>
         <v>9</v>
       </c>
-      <c r="V22" s="301">
+      <c r="V22" s="300">
         <f>V20+V21</f>
         <v>1638</v>
       </c>
@@ -10368,7 +10409,7 @@
       <c r="B23" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="303" t="s">
+      <c r="C23" s="302" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="157"/>
@@ -10386,7 +10427,7 @@
       <c r="P23" s="149"/>
       <c r="Q23" s="154"/>
       <c r="T23" s="232" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="U23" s="232">
         <v>10</v>
@@ -10400,10 +10441,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="146" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C24" s="130" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D24" s="157"/>
       <c r="E24" s="145"/>
@@ -10432,7 +10473,7 @@
       </c>
       <c r="B25" s="146"/>
       <c r="C25" s="130" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D25" s="157"/>
       <c r="E25" s="145"/>
@@ -10455,7 +10496,7 @@
       </c>
       <c r="B26" s="146"/>
       <c r="C26" s="137" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D26" s="157"/>
       <c r="E26" s="160"/>
@@ -10478,7 +10519,7 @@
       </c>
       <c r="B27" s="146"/>
       <c r="C27" s="137" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D27" s="163"/>
       <c r="E27" s="160"/>
@@ -10517,11 +10558,11 @@
       <c r="Q28" s="154"/>
     </row>
     <row r="29" spans="1:22" s="138" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="366" t="s">
+      <c r="A29" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="367"/>
-      <c r="C29" s="368"/>
+      <c r="B29" s="366"/>
+      <c r="C29" s="367"/>
       <c r="D29" s="180">
         <f t="shared" ref="D29:P29" si="0">SUM(D7:D28)</f>
         <v>0</v>
@@ -11272,116 +11313,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="371" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="372"/>
-      <c r="L1" s="372"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="372"/>
-      <c r="P1" s="372"/>
-      <c r="Q1" s="372"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
+      <c r="M1" s="371"/>
+      <c r="N1" s="371"/>
+      <c r="O1" s="371"/>
+      <c r="P1" s="371"/>
+      <c r="Q1" s="371"/>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="372"/>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
-      <c r="G2" s="372"/>
-      <c r="H2" s="372"/>
-      <c r="I2" s="372"/>
-      <c r="J2" s="372"/>
-      <c r="K2" s="372"/>
-      <c r="L2" s="372"/>
-      <c r="M2" s="372"/>
-      <c r="N2" s="372"/>
-      <c r="O2" s="372"/>
-      <c r="P2" s="372"/>
-      <c r="Q2" s="372"/>
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="371"/>
+      <c r="N2" s="371"/>
+      <c r="O2" s="371"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
     </row>
     <row r="3" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="372" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
-      <c r="G3" s="373"/>
-      <c r="H3" s="373"/>
-      <c r="I3" s="373"/>
-      <c r="J3" s="373"/>
-      <c r="K3" s="373"/>
-      <c r="L3" s="373"/>
-      <c r="M3" s="373"/>
-      <c r="N3" s="373"/>
-      <c r="O3" s="373"/>
-      <c r="P3" s="373"/>
-      <c r="Q3" s="373"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="372"/>
+      <c r="H3" s="372"/>
+      <c r="I3" s="372"/>
+      <c r="J3" s="372"/>
+      <c r="K3" s="372"/>
+      <c r="L3" s="372"/>
+      <c r="M3" s="372"/>
+      <c r="N3" s="372"/>
+      <c r="O3" s="372"/>
+      <c r="P3" s="372"/>
+      <c r="Q3" s="372"/>
     </row>
     <row r="4" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="374" t="s">
+      <c r="A4" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
-      <c r="G4" s="374"/>
-      <c r="H4" s="374"/>
-      <c r="I4" s="374"/>
-      <c r="J4" s="374"/>
-      <c r="K4" s="374"/>
-      <c r="L4" s="374"/>
-      <c r="M4" s="374"/>
-      <c r="N4" s="374"/>
-      <c r="O4" s="374"/>
-      <c r="P4" s="374"/>
-      <c r="Q4" s="374"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
+      <c r="G4" s="373"/>
+      <c r="H4" s="373"/>
+      <c r="I4" s="373"/>
+      <c r="J4" s="373"/>
+      <c r="K4" s="373"/>
+      <c r="L4" s="373"/>
+      <c r="M4" s="373"/>
+      <c r="N4" s="373"/>
+      <c r="O4" s="373"/>
+      <c r="P4" s="373"/>
+      <c r="Q4" s="373"/>
     </row>
     <row r="5" spans="1:22" s="128" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="375" t="s">
+      <c r="A5" s="374" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="376"/>
+      <c r="B5" s="375"/>
       <c r="C5" s="172"/>
       <c r="D5" s="173" t="s">
         <v>44</v>
       </c>
       <c r="E5" s="173"/>
-      <c r="F5" s="370" t="s">
+      <c r="F5" s="369" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="370"/>
-      <c r="H5" s="370"/>
-      <c r="I5" s="370"/>
-      <c r="J5" s="370"/>
-      <c r="K5" s="370"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="370"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="370"/>
-      <c r="P5" s="370"/>
-      <c r="Q5" s="371"/>
-      <c r="T5" s="369" t="s">
+      <c r="G5" s="369"/>
+      <c r="H5" s="369"/>
+      <c r="I5" s="369"/>
+      <c r="J5" s="369"/>
+      <c r="K5" s="369"/>
+      <c r="L5" s="369"/>
+      <c r="M5" s="369"/>
+      <c r="N5" s="369"/>
+      <c r="O5" s="369"/>
+      <c r="P5" s="369"/>
+      <c r="Q5" s="370"/>
+      <c r="T5" s="368" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="370"/>
-      <c r="V5" s="371"/>
+      <c r="U5" s="369"/>
+      <c r="V5" s="370"/>
     </row>
     <row r="6" spans="1:22" s="129" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
@@ -11582,11 +11623,11 @@
       <c r="O10" s="153"/>
       <c r="P10" s="149"/>
       <c r="Q10" s="154"/>
-      <c r="T10" s="378" t="s">
+      <c r="T10" s="377" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="379"/>
-      <c r="V10" s="380"/>
+      <c r="U10" s="378"/>
+      <c r="V10" s="379"/>
     </row>
     <row r="11" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="133">
@@ -11675,11 +11716,11 @@
       <c r="O13" s="149"/>
       <c r="P13" s="149"/>
       <c r="Q13" s="154"/>
-      <c r="T13" s="378" t="s">
+      <c r="T13" s="377" t="s">
         <v>121</v>
       </c>
-      <c r="U13" s="379"/>
-      <c r="V13" s="380"/>
+      <c r="U13" s="378"/>
+      <c r="V13" s="379"/>
     </row>
     <row r="14" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="155">
@@ -12035,11 +12076,11 @@
       <c r="Q27" s="154"/>
     </row>
     <row r="28" spans="1:21" s="138" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="366" t="s">
+      <c r="A28" s="365" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="367"/>
-      <c r="C28" s="368"/>
+      <c r="B28" s="366"/>
+      <c r="C28" s="367"/>
       <c r="D28" s="180">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -12760,8 +12801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12772,61 +12813,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="385" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
-      <c r="S1" s="386"/>
-      <c r="T1" s="386"/>
-      <c r="U1" s="386"/>
-      <c r="V1" s="386"/>
-      <c r="W1" s="386"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="385"/>
+      <c r="P1" s="385"/>
+      <c r="Q1" s="385"/>
+      <c r="R1" s="385"/>
+      <c r="S1" s="385"/>
+      <c r="T1" s="385"/>
+      <c r="U1" s="385"/>
+      <c r="V1" s="385"/>
+      <c r="W1" s="385"/>
       <c r="X1" s="234"/>
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="389" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389"/>
-      <c r="F2" s="397"/>
-      <c r="G2" s="398"/>
-      <c r="H2" s="398"/>
-      <c r="I2" s="398"/>
-      <c r="J2" s="398"/>
-      <c r="K2" s="387" t="s">
+      <c r="A2" s="388" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="388"/>
+      <c r="C2" s="388"/>
+      <c r="D2" s="388"/>
+      <c r="E2" s="388"/>
+      <c r="F2" s="396"/>
+      <c r="G2" s="397"/>
+      <c r="H2" s="397"/>
+      <c r="I2" s="397"/>
+      <c r="J2" s="397"/>
+      <c r="K2" s="386" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="387"/>
-      <c r="M2" s="387"/>
-      <c r="N2" s="387"/>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
-      <c r="R2" s="387"/>
-      <c r="S2" s="387"/>
-      <c r="T2" s="387"/>
-      <c r="U2" s="387"/>
-      <c r="V2" s="387"/>
-      <c r="W2" s="388"/>
+      <c r="L2" s="386"/>
+      <c r="M2" s="386"/>
+      <c r="N2" s="386"/>
+      <c r="O2" s="386"/>
+      <c r="P2" s="386"/>
+      <c r="Q2" s="386"/>
+      <c r="R2" s="386"/>
+      <c r="S2" s="386"/>
+      <c r="T2" s="386"/>
+      <c r="U2" s="386"/>
+      <c r="V2" s="386"/>
+      <c r="W2" s="387"/>
       <c r="X2" s="236"/>
       <c r="Y2" s="236"/>
       <c r="Z2" s="236"/>
@@ -12837,42 +12878,42 @@
     </row>
     <row r="3" spans="1:30" s="128" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="237"/>
-      <c r="B3" s="381" t="s">
+      <c r="B3" s="380" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="383"/>
-      <c r="E3" s="381" t="s">
+      <c r="C3" s="381"/>
+      <c r="D3" s="382"/>
+      <c r="E3" s="380" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="384"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="384" t="s">
+      <c r="F3" s="383"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="383" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="384"/>
-      <c r="J3" s="384"/>
-      <c r="K3" s="390" t="s">
+      <c r="I3" s="383"/>
+      <c r="J3" s="383"/>
+      <c r="K3" s="389" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="391"/>
-      <c r="M3" s="392"/>
-      <c r="N3" s="390" t="s">
+      <c r="L3" s="390"/>
+      <c r="M3" s="391"/>
+      <c r="N3" s="389" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="391"/>
-      <c r="P3" s="392"/>
-      <c r="Q3" s="393" t="s">
+      <c r="O3" s="390"/>
+      <c r="P3" s="391"/>
+      <c r="Q3" s="392" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="384"/>
-      <c r="S3" s="385"/>
-      <c r="T3" s="390" t="s">
+      <c r="R3" s="383"/>
+      <c r="S3" s="384"/>
+      <c r="T3" s="389" t="s">
         <v>116</v>
       </c>
-      <c r="U3" s="391"/>
-      <c r="V3" s="394"/>
-      <c r="W3" s="395" t="s">
+      <c r="U3" s="390"/>
+      <c r="V3" s="393"/>
+      <c r="W3" s="394" t="s">
         <v>118</v>
       </c>
       <c r="X3" s="236"/>
@@ -12950,7 +12991,7 @@
       <c r="V4" s="247" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="396"/>
+      <c r="W4" s="395"/>
       <c r="X4" s="236"/>
       <c r="Y4" s="236"/>
       <c r="Z4" s="236"/>
@@ -14065,99 +14106,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="373" t="s">
+      <c r="A1" s="372" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="373"/>
-      <c r="C1" s="373"/>
-      <c r="D1" s="373"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="373"/>
-      <c r="G1" s="373"/>
-      <c r="H1" s="373"/>
-      <c r="I1" s="373"/>
-      <c r="J1" s="373"/>
-      <c r="K1" s="373"/>
-      <c r="L1" s="373"/>
-      <c r="M1" s="373"/>
-      <c r="N1" s="373"/>
-      <c r="O1" s="373"/>
-      <c r="P1" s="373"/>
-      <c r="Q1" s="373"/>
-      <c r="R1" s="373"/>
-      <c r="S1" s="373"/>
-      <c r="T1" s="373"/>
-      <c r="U1" s="373"/>
-      <c r="V1" s="373"/>
-      <c r="W1" s="373"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="372"/>
+      <c r="P1" s="372"/>
+      <c r="Q1" s="372"/>
+      <c r="R1" s="372"/>
+      <c r="S1" s="372"/>
+      <c r="T1" s="372"/>
+      <c r="U1" s="372"/>
+      <c r="V1" s="372"/>
+      <c r="W1" s="372"/>
     </row>
     <row r="2" spans="1:23" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="403" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="404"/>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="405"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
-      <c r="K2" s="406" t="s">
+      <c r="B2" s="403"/>
+      <c r="C2" s="403"/>
+      <c r="D2" s="403"/>
+      <c r="E2" s="403"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="373"/>
+      <c r="H2" s="373"/>
+      <c r="I2" s="373"/>
+      <c r="J2" s="373"/>
+      <c r="K2" s="405" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="406"/>
-      <c r="M2" s="406"/>
-      <c r="N2" s="406"/>
-      <c r="O2" s="406"/>
-      <c r="P2" s="406"/>
-      <c r="Q2" s="406"/>
-      <c r="R2" s="406"/>
-      <c r="S2" s="406"/>
-      <c r="T2" s="406"/>
-      <c r="U2" s="406"/>
-      <c r="V2" s="406"/>
-      <c r="W2" s="406"/>
+      <c r="L2" s="405"/>
+      <c r="M2" s="405"/>
+      <c r="N2" s="405"/>
+      <c r="O2" s="405"/>
+      <c r="P2" s="405"/>
+      <c r="Q2" s="405"/>
+      <c r="R2" s="405"/>
+      <c r="S2" s="405"/>
+      <c r="T2" s="405"/>
+      <c r="U2" s="405"/>
+      <c r="V2" s="405"/>
+      <c r="W2" s="405"/>
     </row>
     <row r="3" spans="1:23" s="128" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="223"/>
-      <c r="B3" s="399" t="s">
+      <c r="B3" s="398" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="400"/>
-      <c r="D3" s="401"/>
-      <c r="E3" s="399" t="s">
+      <c r="C3" s="399"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="398" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="400"/>
-      <c r="G3" s="401"/>
-      <c r="H3" s="399" t="s">
+      <c r="F3" s="399"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="398" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="400"/>
-      <c r="J3" s="401"/>
-      <c r="K3" s="399" t="s">
+      <c r="I3" s="399"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="398" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="400"/>
-      <c r="M3" s="401"/>
-      <c r="N3" s="399" t="s">
+      <c r="L3" s="399"/>
+      <c r="M3" s="400"/>
+      <c r="N3" s="398" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="400"/>
-      <c r="P3" s="401"/>
-      <c r="Q3" s="399" t="s">
+      <c r="O3" s="399"/>
+      <c r="P3" s="400"/>
+      <c r="Q3" s="398" t="s">
         <v>117</v>
       </c>
-      <c r="R3" s="400"/>
-      <c r="S3" s="401"/>
-      <c r="T3" s="399" t="s">
+      <c r="R3" s="399"/>
+      <c r="S3" s="400"/>
+      <c r="T3" s="398" t="s">
         <v>116</v>
       </c>
-      <c r="U3" s="400"/>
-      <c r="V3" s="401"/>
-      <c r="W3" s="402" t="s">
+      <c r="U3" s="399"/>
+      <c r="V3" s="400"/>
+      <c r="W3" s="401" t="s">
         <v>118</v>
       </c>
     </row>
@@ -14228,7 +14269,7 @@
       <c r="V4" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="W4" s="403"/>
+      <c r="W4" s="402"/>
     </row>
     <row r="5" spans="1:23" s="128" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="196">
@@ -14731,7 +14772,7 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14745,14 +14786,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="372" t="s">
+      <c r="A1" s="371" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="372"/>
+      <c r="B1" s="371"/>
+      <c r="C1" s="371"/>
+      <c r="D1" s="371"/>
+      <c r="E1" s="371"/>
+      <c r="F1" s="371"/>
       <c r="G1" s="296"/>
       <c r="H1" s="296"/>
       <c r="I1" s="296"/>
@@ -14766,12 +14807,12 @@
       <c r="Q1" s="296"/>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="372"/>
-      <c r="B2" s="372"/>
-      <c r="C2" s="372"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="372"/>
-      <c r="F2" s="372"/>
+      <c r="A2" s="371"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
       <c r="G2" s="296"/>
       <c r="H2" s="296"/>
       <c r="I2" s="296"/>
@@ -14785,14 +14826,14 @@
       <c r="Q2" s="296"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="373" t="s">
+      <c r="A3" s="372" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="373"/>
-      <c r="C3" s="373"/>
-      <c r="D3" s="373"/>
-      <c r="E3" s="373"/>
-      <c r="F3" s="373"/>
+      <c r="B3" s="372"/>
+      <c r="C3" s="372"/>
+      <c r="D3" s="372"/>
+      <c r="E3" s="372"/>
+      <c r="F3" s="372"/>
       <c r="G3" s="297"/>
       <c r="H3" s="297"/>
       <c r="I3" s="297"/>
@@ -14805,15 +14846,15 @@
       <c r="P3" s="297"/>
       <c r="Q3" s="297"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="374" t="s">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="373" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="374"/>
-      <c r="C4" s="374"/>
-      <c r="D4" s="374"/>
-      <c r="E4" s="374"/>
-      <c r="F4" s="374"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="373"/>
+      <c r="D4" s="373"/>
+      <c r="E4" s="373"/>
+      <c r="F4" s="373"/>
       <c r="G4" s="294"/>
       <c r="H4" s="294"/>
       <c r="I4" s="294"/>
@@ -14827,20 +14868,20 @@
       <c r="Q4" s="294"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="407" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="408" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="408"/>
+      <c r="D5" s="409" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="408"/>
-      <c r="D5" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="407">
-        <v>1999091953</v>
-      </c>
-      <c r="F5" s="407"/>
+      <c r="E5" s="410" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="411"/>
       <c r="G5" s="294"/>
       <c r="H5" s="294"/>
       <c r="I5" s="294"/>
@@ -14853,21 +14894,21 @@
       <c r="P5" s="294"/>
       <c r="Q5" s="294"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="408" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="408"/>
-      <c r="D6" s="146" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="409">
-        <v>1777649917</v>
-      </c>
-      <c r="F6" s="410"/>
+    <row r="6" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="412" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="413" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="413"/>
+      <c r="D6" s="414" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="415" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="416"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -14881,744 +14922,728 @@
       <c r="Q6" s="294"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="406" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="298" t="s">
+      <c r="B7" s="406" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="298" t="s">
+      <c r="C7" s="406" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="298" t="s">
+      <c r="D7" s="406" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="298" t="s">
+      <c r="E7" s="406" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="298" t="s">
+      <c r="F7" s="406" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="300" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="300">
-        <v>25</v>
-      </c>
-      <c r="C8" s="300">
-        <v>25</v>
-      </c>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300">
-        <v>50</v>
-      </c>
-      <c r="F8" s="300"/>
+      <c r="A8" s="299"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
     </row>
     <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="300" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="300">
-        <v>10</v>
-      </c>
-      <c r="C9" s="300">
-        <v>10</v>
-      </c>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300">
-        <v>20</v>
-      </c>
-      <c r="F9" s="300"/>
+      <c r="A9" s="299"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="299"/>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
+      <c r="A10" s="298"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="298"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="299"/>
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
+      <c r="A11" s="298"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="298"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="298"/>
     </row>
     <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="299"/>
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
+      <c r="A12" s="298"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="298"/>
     </row>
     <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="299"/>
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
+      <c r="A13" s="298"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
     </row>
     <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="299"/>
-      <c r="B14" s="299"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
+      <c r="A14" s="298"/>
+      <c r="B14" s="298"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
     </row>
     <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="299"/>
-      <c r="B15" s="299"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
+      <c r="A15" s="298"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
     </row>
     <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="299"/>
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
+      <c r="A16" s="298"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="299"/>
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
+      <c r="A17" s="298"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="298"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="298"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="299"/>
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
+      <c r="A18" s="298"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="298"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="299"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="299"/>
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="A20" s="298"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="298"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="299"/>
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="A21" s="298"/>
+      <c r="B21" s="298"/>
+      <c r="C21" s="298"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="299"/>
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="A22" s="298"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="299"/>
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="A23" s="298"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="299"/>
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="A24" s="298"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="299"/>
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="A25" s="298"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="299"/>
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
+      <c r="A26" s="298"/>
+      <c r="B26" s="298"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="298"/>
+      <c r="E26" s="298"/>
+      <c r="F26" s="298"/>
     </row>
     <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="299"/>
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
+      <c r="A27" s="298"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="299"/>
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
+      <c r="A28" s="298"/>
+      <c r="B28" s="298"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="298"/>
     </row>
     <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="299"/>
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
+      <c r="A29" s="298"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="299"/>
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
+      <c r="A30" s="298"/>
+      <c r="B30" s="298"/>
+      <c r="C30" s="298"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="299"/>
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
+      <c r="A31" s="298"/>
+      <c r="B31" s="298"/>
+      <c r="C31" s="298"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
     </row>
     <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="299"/>
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
+      <c r="A32" s="298"/>
+      <c r="B32" s="298"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="299"/>
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
+      <c r="A33" s="298"/>
+      <c r="B33" s="298"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="298"/>
+      <c r="F33" s="298"/>
     </row>
     <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="299"/>
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
+      <c r="A34" s="298"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="298"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="298"/>
+      <c r="F34" s="298"/>
     </row>
     <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="299"/>
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
+      <c r="A35" s="298"/>
+      <c r="B35" s="298"/>
+      <c r="C35" s="298"/>
+      <c r="D35" s="298"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="298"/>
     </row>
     <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="299"/>
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
+      <c r="A36" s="298"/>
+      <c r="B36" s="298"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
+      <c r="E36" s="298"/>
+      <c r="F36" s="298"/>
     </row>
     <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="299"/>
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="A37" s="298"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="298"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="299"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="A38" s="298"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="298"/>
     </row>
     <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="299"/>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="A39" s="298"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
     </row>
     <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="299"/>
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="A40" s="298"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
     </row>
     <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="299"/>
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="A41" s="298"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
     </row>
     <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="299"/>
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
+      <c r="A42" s="298"/>
+      <c r="B42" s="298"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="298"/>
+      <c r="E42" s="298"/>
+      <c r="F42" s="298"/>
     </row>
     <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="299"/>
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
+      <c r="A43" s="298"/>
+      <c r="B43" s="298"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
     </row>
     <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="299"/>
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
+      <c r="A44" s="298"/>
+      <c r="B44" s="298"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="298"/>
+      <c r="E44" s="298"/>
+      <c r="F44" s="298"/>
     </row>
     <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="299"/>
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
+      <c r="A45" s="298"/>
+      <c r="B45" s="298"/>
+      <c r="C45" s="298"/>
+      <c r="D45" s="298"/>
+      <c r="E45" s="298"/>
+      <c r="F45" s="298"/>
     </row>
     <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="299"/>
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
+      <c r="A46" s="298"/>
+      <c r="B46" s="298"/>
+      <c r="C46" s="298"/>
+      <c r="D46" s="298"/>
+      <c r="E46" s="298"/>
+      <c r="F46" s="298"/>
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="299"/>
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
+      <c r="A47" s="298"/>
+      <c r="B47" s="298"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
+      <c r="E47" s="298"/>
+      <c r="F47" s="298"/>
     </row>
     <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="299"/>
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
+      <c r="A48" s="298"/>
+      <c r="B48" s="298"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
+      <c r="E48" s="298"/>
+      <c r="F48" s="298"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="299"/>
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
+      <c r="A49" s="298"/>
+      <c r="B49" s="298"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="298"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="299"/>
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
+      <c r="A50" s="298"/>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="298"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="299"/>
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
+      <c r="A51" s="298"/>
+      <c r="B51" s="298"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="298"/>
+      <c r="E51" s="298"/>
+      <c r="F51" s="298"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="299"/>
-      <c r="B52" s="299"/>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
+      <c r="A52" s="298"/>
+      <c r="B52" s="298"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="298"/>
+      <c r="E52" s="298"/>
+      <c r="F52" s="298"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="299"/>
-      <c r="B53" s="299"/>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="299"/>
-      <c r="F53" s="299"/>
+      <c r="A53" s="298"/>
+      <c r="B53" s="298"/>
+      <c r="C53" s="298"/>
+      <c r="D53" s="298"/>
+      <c r="E53" s="298"/>
+      <c r="F53" s="298"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="299"/>
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
+      <c r="A54" s="298"/>
+      <c r="B54" s="298"/>
+      <c r="C54" s="298"/>
+      <c r="D54" s="298"/>
+      <c r="E54" s="298"/>
+      <c r="F54" s="298"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="299"/>
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
+      <c r="A55" s="298"/>
+      <c r="B55" s="298"/>
+      <c r="C55" s="298"/>
+      <c r="D55" s="298"/>
+      <c r="E55" s="298"/>
+      <c r="F55" s="298"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="299"/>
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
+      <c r="A56" s="298"/>
+      <c r="B56" s="298"/>
+      <c r="C56" s="298"/>
+      <c r="D56" s="298"/>
+      <c r="E56" s="298"/>
+      <c r="F56" s="298"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="299"/>
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
+      <c r="A57" s="298"/>
+      <c r="B57" s="298"/>
+      <c r="C57" s="298"/>
+      <c r="D57" s="298"/>
+      <c r="E57" s="298"/>
+      <c r="F57" s="298"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="299"/>
-      <c r="B58" s="299"/>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="299"/>
-      <c r="F58" s="299"/>
+      <c r="A58" s="298"/>
+      <c r="B58" s="298"/>
+      <c r="C58" s="298"/>
+      <c r="D58" s="298"/>
+      <c r="E58" s="298"/>
+      <c r="F58" s="298"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="299"/>
-      <c r="B59" s="299"/>
-      <c r="C59" s="299"/>
-      <c r="D59" s="299"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="299"/>
+      <c r="A59" s="298"/>
+      <c r="B59" s="298"/>
+      <c r="C59" s="298"/>
+      <c r="D59" s="298"/>
+      <c r="E59" s="298"/>
+      <c r="F59" s="298"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="299"/>
-      <c r="B60" s="299"/>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
+      <c r="A60" s="298"/>
+      <c r="B60" s="298"/>
+      <c r="C60" s="298"/>
+      <c r="D60" s="298"/>
+      <c r="E60" s="298"/>
+      <c r="F60" s="298"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="299"/>
-      <c r="B61" s="299"/>
-      <c r="C61" s="299"/>
-      <c r="D61" s="299"/>
-      <c r="E61" s="299"/>
-      <c r="F61" s="299"/>
+      <c r="A61" s="298"/>
+      <c r="B61" s="298"/>
+      <c r="C61" s="298"/>
+      <c r="D61" s="298"/>
+      <c r="E61" s="298"/>
+      <c r="F61" s="298"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="299"/>
-      <c r="B62" s="299"/>
-      <c r="C62" s="299"/>
-      <c r="D62" s="299"/>
-      <c r="E62" s="299"/>
-      <c r="F62" s="299"/>
+      <c r="A62" s="298"/>
+      <c r="B62" s="298"/>
+      <c r="C62" s="298"/>
+      <c r="D62" s="298"/>
+      <c r="E62" s="298"/>
+      <c r="F62" s="298"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="299"/>
-      <c r="B63" s="299"/>
-      <c r="C63" s="299"/>
-      <c r="D63" s="299"/>
-      <c r="E63" s="299"/>
-      <c r="F63" s="299"/>
+      <c r="A63" s="298"/>
+      <c r="B63" s="298"/>
+      <c r="C63" s="298"/>
+      <c r="D63" s="298"/>
+      <c r="E63" s="298"/>
+      <c r="F63" s="298"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="299"/>
-      <c r="B64" s="299"/>
-      <c r="C64" s="299"/>
-      <c r="D64" s="299"/>
-      <c r="E64" s="299"/>
-      <c r="F64" s="299"/>
+      <c r="A64" s="298"/>
+      <c r="B64" s="298"/>
+      <c r="C64" s="298"/>
+      <c r="D64" s="298"/>
+      <c r="E64" s="298"/>
+      <c r="F64" s="298"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="299"/>
-      <c r="B65" s="299"/>
-      <c r="C65" s="299"/>
-      <c r="D65" s="299"/>
-      <c r="E65" s="299"/>
-      <c r="F65" s="299"/>
+      <c r="A65" s="298"/>
+      <c r="B65" s="298"/>
+      <c r="C65" s="298"/>
+      <c r="D65" s="298"/>
+      <c r="E65" s="298"/>
+      <c r="F65" s="298"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="299"/>
-      <c r="B66" s="299"/>
-      <c r="C66" s="299"/>
-      <c r="D66" s="299"/>
-      <c r="E66" s="299"/>
-      <c r="F66" s="299"/>
+      <c r="A66" s="298"/>
+      <c r="B66" s="298"/>
+      <c r="C66" s="298"/>
+      <c r="D66" s="298"/>
+      <c r="E66" s="298"/>
+      <c r="F66" s="298"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="299"/>
-      <c r="B67" s="299"/>
-      <c r="C67" s="299"/>
-      <c r="D67" s="299"/>
-      <c r="E67" s="299"/>
-      <c r="F67" s="299"/>
+      <c r="A67" s="298"/>
+      <c r="B67" s="298"/>
+      <c r="C67" s="298"/>
+      <c r="D67" s="298"/>
+      <c r="E67" s="298"/>
+      <c r="F67" s="298"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="299"/>
-      <c r="B68" s="299"/>
-      <c r="C68" s="299"/>
-      <c r="D68" s="299"/>
-      <c r="E68" s="299"/>
-      <c r="F68" s="299"/>
+      <c r="A68" s="298"/>
+      <c r="B68" s="298"/>
+      <c r="C68" s="298"/>
+      <c r="D68" s="298"/>
+      <c r="E68" s="298"/>
+      <c r="F68" s="298"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="299"/>
-      <c r="B69" s="299"/>
-      <c r="C69" s="299"/>
-      <c r="D69" s="299"/>
-      <c r="E69" s="299"/>
-      <c r="F69" s="299"/>
+      <c r="A69" s="298"/>
+      <c r="B69" s="298"/>
+      <c r="C69" s="298"/>
+      <c r="D69" s="298"/>
+      <c r="E69" s="298"/>
+      <c r="F69" s="298"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="299"/>
-      <c r="B70" s="299"/>
-      <c r="C70" s="299"/>
-      <c r="D70" s="299"/>
-      <c r="E70" s="299"/>
-      <c r="F70" s="299"/>
+      <c r="A70" s="298"/>
+      <c r="B70" s="298"/>
+      <c r="C70" s="298"/>
+      <c r="D70" s="298"/>
+      <c r="E70" s="298"/>
+      <c r="F70" s="298"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="299"/>
-      <c r="B71" s="299"/>
-      <c r="C71" s="299"/>
-      <c r="D71" s="299"/>
-      <c r="E71" s="299"/>
-      <c r="F71" s="299"/>
+      <c r="A71" s="298"/>
+      <c r="B71" s="298"/>
+      <c r="C71" s="298"/>
+      <c r="D71" s="298"/>
+      <c r="E71" s="298"/>
+      <c r="F71" s="298"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="299"/>
-      <c r="B72" s="299"/>
-      <c r="C72" s="299"/>
-      <c r="D72" s="299"/>
-      <c r="E72" s="299"/>
-      <c r="F72" s="299"/>
+      <c r="A72" s="298"/>
+      <c r="B72" s="298"/>
+      <c r="C72" s="298"/>
+      <c r="D72" s="298"/>
+      <c r="E72" s="298"/>
+      <c r="F72" s="298"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="299"/>
-      <c r="B73" s="299"/>
-      <c r="C73" s="299"/>
-      <c r="D73" s="299"/>
-      <c r="E73" s="299"/>
-      <c r="F73" s="299"/>
+      <c r="A73" s="298"/>
+      <c r="B73" s="298"/>
+      <c r="C73" s="298"/>
+      <c r="D73" s="298"/>
+      <c r="E73" s="298"/>
+      <c r="F73" s="298"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="299"/>
-      <c r="B74" s="299"/>
-      <c r="C74" s="299"/>
-      <c r="D74" s="299"/>
-      <c r="E74" s="299"/>
-      <c r="F74" s="299"/>
+      <c r="A74" s="298"/>
+      <c r="B74" s="298"/>
+      <c r="C74" s="298"/>
+      <c r="D74" s="298"/>
+      <c r="E74" s="298"/>
+      <c r="F74" s="298"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="299"/>
-      <c r="B75" s="299"/>
-      <c r="C75" s="299"/>
-      <c r="D75" s="299"/>
-      <c r="E75" s="299"/>
-      <c r="F75" s="299"/>
+      <c r="A75" s="298"/>
+      <c r="B75" s="298"/>
+      <c r="C75" s="298"/>
+      <c r="D75" s="298"/>
+      <c r="E75" s="298"/>
+      <c r="F75" s="298"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="299"/>
-      <c r="B76" s="299"/>
-      <c r="C76" s="299"/>
-      <c r="D76" s="299"/>
-      <c r="E76" s="299"/>
-      <c r="F76" s="299"/>
+      <c r="A76" s="298"/>
+      <c r="B76" s="298"/>
+      <c r="C76" s="298"/>
+      <c r="D76" s="298"/>
+      <c r="E76" s="298"/>
+      <c r="F76" s="298"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="299"/>
-      <c r="B77" s="299"/>
-      <c r="C77" s="299"/>
-      <c r="D77" s="299"/>
-      <c r="E77" s="299"/>
-      <c r="F77" s="299"/>
+      <c r="A77" s="298"/>
+      <c r="B77" s="298"/>
+      <c r="C77" s="298"/>
+      <c r="D77" s="298"/>
+      <c r="E77" s="298"/>
+      <c r="F77" s="298"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="299"/>
-      <c r="B78" s="299"/>
-      <c r="C78" s="299"/>
-      <c r="D78" s="299"/>
-      <c r="E78" s="299"/>
-      <c r="F78" s="299"/>
+      <c r="A78" s="298"/>
+      <c r="B78" s="298"/>
+      <c r="C78" s="298"/>
+      <c r="D78" s="298"/>
+      <c r="E78" s="298"/>
+      <c r="F78" s="298"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="299"/>
-      <c r="B79" s="299"/>
-      <c r="C79" s="299"/>
-      <c r="D79" s="299"/>
-      <c r="E79" s="299"/>
-      <c r="F79" s="299"/>
+      <c r="A79" s="298"/>
+      <c r="B79" s="298"/>
+      <c r="C79" s="298"/>
+      <c r="D79" s="298"/>
+      <c r="E79" s="298"/>
+      <c r="F79" s="298"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="299"/>
-      <c r="B80" s="299"/>
-      <c r="C80" s="299"/>
-      <c r="D80" s="299"/>
-      <c r="E80" s="299"/>
-      <c r="F80" s="299"/>
+      <c r="A80" s="298"/>
+      <c r="B80" s="298"/>
+      <c r="C80" s="298"/>
+      <c r="D80" s="298"/>
+      <c r="E80" s="298"/>
+      <c r="F80" s="298"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="299"/>
-      <c r="B81" s="299"/>
-      <c r="C81" s="299"/>
-      <c r="D81" s="299"/>
-      <c r="E81" s="299"/>
-      <c r="F81" s="299"/>
+      <c r="A81" s="298"/>
+      <c r="B81" s="298"/>
+      <c r="C81" s="298"/>
+      <c r="D81" s="298"/>
+      <c r="E81" s="298"/>
+      <c r="F81" s="298"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="299"/>
-      <c r="B82" s="299"/>
-      <c r="C82" s="299"/>
-      <c r="D82" s="299"/>
-      <c r="E82" s="299"/>
-      <c r="F82" s="299"/>
+      <c r="A82" s="298"/>
+      <c r="B82" s="298"/>
+      <c r="C82" s="298"/>
+      <c r="D82" s="298"/>
+      <c r="E82" s="298"/>
+      <c r="F82" s="298"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="299"/>
-      <c r="B83" s="299"/>
-      <c r="C83" s="299"/>
-      <c r="D83" s="299"/>
-      <c r="E83" s="299"/>
-      <c r="F83" s="299"/>
+      <c r="A83" s="298"/>
+      <c r="B83" s="298"/>
+      <c r="C83" s="298"/>
+      <c r="D83" s="298"/>
+      <c r="E83" s="298"/>
+      <c r="F83" s="298"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="299"/>
-      <c r="B84" s="299"/>
-      <c r="C84" s="299"/>
-      <c r="D84" s="299"/>
-      <c r="E84" s="299"/>
-      <c r="F84" s="299"/>
+      <c r="A84" s="298"/>
+      <c r="B84" s="298"/>
+      <c r="C84" s="298"/>
+      <c r="D84" s="298"/>
+      <c r="E84" s="298"/>
+      <c r="F84" s="298"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="299"/>
-      <c r="B85" s="299"/>
-      <c r="C85" s="299"/>
-      <c r="D85" s="299"/>
-      <c r="E85" s="299"/>
-      <c r="F85" s="299"/>
+      <c r="A85" s="298"/>
+      <c r="B85" s="298"/>
+      <c r="C85" s="298"/>
+      <c r="D85" s="298"/>
+      <c r="E85" s="298"/>
+      <c r="F85" s="298"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="299"/>
-      <c r="B86" s="299"/>
-      <c r="C86" s="299"/>
-      <c r="D86" s="299"/>
-      <c r="E86" s="299"/>
-      <c r="F86" s="299"/>
+      <c r="A86" s="298"/>
+      <c r="B86" s="298"/>
+      <c r="C86" s="298"/>
+      <c r="D86" s="298"/>
+      <c r="E86" s="298"/>
+      <c r="F86" s="298"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="299"/>
-      <c r="B87" s="299"/>
-      <c r="C87" s="299"/>
-      <c r="D87" s="299"/>
-      <c r="E87" s="299"/>
-      <c r="F87" s="299"/>
+      <c r="A87" s="298"/>
+      <c r="B87" s="298"/>
+      <c r="C87" s="298"/>
+      <c r="D87" s="298"/>
+      <c r="E87" s="298"/>
+      <c r="F87" s="298"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="299"/>
-      <c r="B88" s="299"/>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="299"/>
-      <c r="F88" s="299"/>
+      <c r="A88" s="298"/>
+      <c r="B88" s="298"/>
+      <c r="C88" s="298"/>
+      <c r="D88" s="298"/>
+      <c r="E88" s="298"/>
+      <c r="F88" s="298"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="299"/>
-      <c r="B89" s="299"/>
-      <c r="C89" s="299"/>
-      <c r="D89" s="299"/>
-      <c r="E89" s="299"/>
-      <c r="F89" s="299"/>
+      <c r="A89" s="298"/>
+      <c r="B89" s="298"/>
+      <c r="C89" s="298"/>
+      <c r="D89" s="298"/>
+      <c r="E89" s="298"/>
+      <c r="F89" s="298"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="299"/>
-      <c r="B90" s="299"/>
-      <c r="C90" s="299"/>
-      <c r="D90" s="299"/>
-      <c r="E90" s="299"/>
-      <c r="F90" s="299"/>
+      <c r="A90" s="298"/>
+      <c r="B90" s="298"/>
+      <c r="C90" s="298"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="298"/>
+      <c r="F90" s="298"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="299"/>
-      <c r="B91" s="299"/>
-      <c r="C91" s="299"/>
-      <c r="D91" s="299"/>
-      <c r="E91" s="299"/>
-      <c r="F91" s="299"/>
+      <c r="A91" s="298"/>
+      <c r="B91" s="298"/>
+      <c r="C91" s="298"/>
+      <c r="D91" s="298"/>
+      <c r="E91" s="298"/>
+      <c r="F91" s="298"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="299"/>
-      <c r="B92" s="299"/>
-      <c r="C92" s="299"/>
-      <c r="D92" s="299"/>
-      <c r="E92" s="299"/>
-      <c r="F92" s="299"/>
+      <c r="A92" s="298"/>
+      <c r="B92" s="298"/>
+      <c r="C92" s="298"/>
+      <c r="D92" s="298"/>
+      <c r="E92" s="298"/>
+      <c r="F92" s="298"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="299"/>
-      <c r="B93" s="299"/>
-      <c r="C93" s="299"/>
-      <c r="D93" s="299"/>
-      <c r="E93" s="299"/>
-      <c r="F93" s="299"/>
+      <c r="A93" s="298"/>
+      <c r="B93" s="298"/>
+      <c r="C93" s="298"/>
+      <c r="D93" s="298"/>
+      <c r="E93" s="298"/>
+      <c r="F93" s="298"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="299"/>
-      <c r="B94" s="299"/>
-      <c r="C94" s="299"/>
-      <c r="D94" s="299"/>
-      <c r="E94" s="299"/>
-      <c r="F94" s="299"/>
+      <c r="A94" s="298"/>
+      <c r="B94" s="298"/>
+      <c r="C94" s="298"/>
+      <c r="D94" s="298"/>
+      <c r="E94" s="298"/>
+      <c r="F94" s="298"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="299"/>
-      <c r="B95" s="299"/>
-      <c r="C95" s="299"/>
-      <c r="D95" s="299"/>
-      <c r="E95" s="299"/>
-      <c r="F95" s="299"/>
+      <c r="A95" s="298"/>
+      <c r="B95" s="298"/>
+      <c r="C95" s="298"/>
+      <c r="D95" s="298"/>
+      <c r="E95" s="298"/>
+      <c r="F95" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="7">
